--- a/database/meta/maplet_info_tags.xlsx
+++ b/database/meta/maplet_info_tags.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt105\RemoteFiles\133802_3_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt105\RemoteFiles\133144_3_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="235">
   <si>
     <t>news</t>
   </si>
@@ -716,6 +716,42 @@
   </si>
   <si>
     <t>tmf03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济损失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然灾害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mzrzh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mjjss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdisaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灾害地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,316 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A3:I29">
-    <sortCondition ref="A3:A29"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1892,78 +1622,417 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>218</v>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:I29">
+    <sortCondition ref="A3:A29"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/database/meta/maplet_info_tags.xlsx
+++ b/database/meta/maplet_info_tags.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt105\RemoteFiles\133144_3_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt105\RemoteFiles\67104_6_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D464CD-1CEE-4F50-941C-F414389B4653}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="271">
   <si>
     <t>news</t>
   </si>
@@ -752,13 +754,150 @@
   </si>
   <si>
     <t>灾害地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t03</t>
+  </si>
+  <si>
+    <t>t03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t05</t>
+  </si>
+  <si>
+    <t>t05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gserial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50年代全国大挂图</t>
+  </si>
+  <si>
+    <t>g50china</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰斯顿皇家现代地图集</t>
+  </si>
+  <si>
+    <t>gyhsd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国行政区划沿革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyg_hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyg_hn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyg_hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyg_hb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyg_xb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyg_xn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t02</t>
+  </si>
+  <si>
+    <t>t04</t>
+  </si>
+  <si>
+    <t>t06</t>
+  </si>
+  <si>
+    <t>华南地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华北地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>china_yg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyg_db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmap1933</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1933年民国时期地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -804,11 +943,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,11 +1266,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1732,11 +1874,209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F6F5A-2F95-4190-AE28-95DBC6B58022}">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/database/meta/maplet_info_tags.xlsx
+++ b/database/meta/maplet_info_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\github\maplet\database\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt105\RemoteFiles\67538_5_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D68CC65B-6235-4B2A-A181-E878E841D8F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33586B5A-01ED-4EE0-AF35-31D80FBDB111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="267">
   <si>
     <t>m</t>
   </si>
@@ -783,6 +783,73 @@
   </si>
   <si>
     <t>地名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2201</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作物水分资源</t>
+  </si>
+  <si>
+    <t>t2203</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业气候资源综合地图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gchinagt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gserial</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列地图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gxldt1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50年代大挂图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t37</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t3701</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t3703</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnyqhzy2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqhzych2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqhzysf2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业气候资源</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1243,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1744,108 +1811,176 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="A46" t="s">
+        <v>250</v>
+      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>260</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D54" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="2" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="2" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2159,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/database/meta/maplet_info_tags.xlsx
+++ b/database/meta/maplet_info_tags.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt105\RemoteFiles\67538_5_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt105\RemoteFiles\67136_3_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33586B5A-01ED-4EE0-AF35-31D80FBDB111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D5B063-3332-47C7-A658-5FB42751FDCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="maps" sheetId="1" r:id="rId1"/>
+    <sheet name="documents" sheetId="2" r:id="rId2"/>
+    <sheet name="books" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="297">
   <si>
     <t>m</t>
   </si>
@@ -850,6 +850,110 @@
   </si>
   <si>
     <t>农业气候资源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2401</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyhsd</t>
+  </si>
+  <si>
+    <t>约翰斯顿皇家现代地图集</t>
+  </si>
+  <si>
+    <t>t2205</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmap1933</t>
+  </si>
+  <si>
+    <t>1933年民国时期地图</t>
+  </si>
+  <si>
+    <t>t2207</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyg_db</t>
+  </si>
+  <si>
+    <t>东北地区</t>
+  </si>
+  <si>
+    <t>gyg_hn</t>
+  </si>
+  <si>
+    <t>华南地区</t>
+  </si>
+  <si>
+    <t>gyg_hz</t>
+  </si>
+  <si>
+    <t>华中地区</t>
+  </si>
+  <si>
+    <t>gyg_hb</t>
+  </si>
+  <si>
+    <t>华北地区</t>
+  </si>
+  <si>
+    <t>gyg_xb</t>
+  </si>
+  <si>
+    <t>西北地区</t>
+  </si>
+  <si>
+    <t>gyg_xn</t>
+  </si>
+  <si>
+    <t>西南地区</t>
+  </si>
+  <si>
+    <t>t2407</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2402</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2403</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2404</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2405</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2406</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东地区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyg_hd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>china_yg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国行政区划沿革</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,6 +1031,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1310,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1845,137 +1952,253 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>260</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="2" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>158</v>
       </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>267</v>
+      </c>
+      <c r="C63" t="s">
+        <v>295</v>
+      </c>
+      <c r="D63" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E70" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2294,7 +2517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>

--- a/database/meta/maplet_info_tags.xlsx
+++ b/database/meta/maplet_info_tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt105\RemoteFiles\67136_3_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt109\RemoteFiles\524732_6_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D5B063-3332-47C7-A658-5FB42751FDCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26F5E66-40C3-44F1-8E2D-40CDCCB196D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="maps" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="300">
   <si>
     <t>m</t>
   </si>
@@ -955,6 +955,17 @@
   <si>
     <t>中国行政区划沿革</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2209</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gzgsg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国史稿地图集</t>
   </si>
 </sst>
 </file>
@@ -1417,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1974,231 +1985,242 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B51" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>260</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D52" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>267</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>295</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E65" s="4"/>
+        <v>293</v>
+      </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E70" s="4"/>
+      <c r="E71" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2517,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
